--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23604"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54310550-9397-4CFD-A7B7-D10FE8100965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EE432D-3D88-4F68-84EF-400AA6B99A83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4">
-        <v>104964891541547</v>
+        <v>105378707013701</v>
       </c>
       <c r="F6" s="1">
         <v>10001</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23610"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EE432D-3D88-4F68-84EF-400AA6B99A83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4D870-9B04-4476-B637-DFC3C546382C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="2415" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
-        <v>104959441174867</v>
+        <v>105393195974757</v>
       </c>
       <c r="F8" s="1">
         <v>10002</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23610"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4D870-9B04-4476-B637-DFC3C546382C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FF8E6-A610-4B0C-80ED-9E1877045E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2415" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>104959519752258</v>
+        <v>105429928771652</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FF8E6-A610-4B0C-80ED-9E1877045E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B1A594-F825-4AC2-81A9-AE53024EA3B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2415" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>BelongToSkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺手W技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -142,6 +146,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -565,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>105429928771652</v>
+        <v>105433482985536</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>
@@ -583,6 +590,20 @@
       </c>
       <c r="F8" s="1">
         <v>10002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="6">
+        <v>10004</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>105439870582861</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10003</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B1A594-F825-4AC2-81A9-AE53024EA3B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC3FE3D-E65E-43CD-83BF-4141F44160BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2415" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,14 @@
   </si>
   <si>
     <t>诺手W技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺手E技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺手E技能碰撞体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -146,8 +154,10 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
@@ -513,7 +523,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -527,7 +537,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2"/>
@@ -539,7 +549,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
@@ -551,7 +561,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>10001</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -565,7 +575,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>10002</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -579,7 +589,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>10003</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -593,10 +603,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <v>10004</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="4">
@@ -604,6 +614,34 @@
       </c>
       <c r="F9" s="1">
         <v>10003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <v>10005</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4">
+        <v>105445478170718</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="8">
+        <v>10006</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <v>105445486755917</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10004</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC3FE3D-E65E-43CD-83BF-4141F44160BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530DEFD-44C4-47E4-86E1-7EE007DA14C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="4">
-        <v>105439870582861</v>
+        <v>105914942423102</v>
       </c>
       <c r="F9" s="1">
         <v>10003</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530DEFD-44C4-47E4-86E1-7EE007DA14C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3CBB8B-A08E-4DAA-A8BB-6BDF83C75288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>105433482985536</v>
+        <v>105926955958349</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3CBB8B-A08E-4DAA-A8BB-6BDF83C75288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88562E7-9556-40D0-8F24-85CA7A1FFE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>105926955958349</v>
+        <v>105927224983595</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>
@@ -596,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
-        <v>105393195974757</v>
+        <v>105927225966654</v>
       </c>
       <c r="F8" s="1">
         <v>10002</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88562E7-9556-40D0-8F24-85CA7A1FFE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C5352-FBDE-4E56-8047-8B5DE52BD22C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="4">
-        <v>105914942423102</v>
+        <v>105927912259653</v>
       </c>
       <c r="F9" s="1">
         <v>10003</v>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="4">
-        <v>105445478170718</v>
+        <v>105927914160248</v>
       </c>
       <c r="F10" s="1">
         <v>10004</v>
